--- a/tv.xlsx
+++ b/tv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYPERPC\Desktop\Terver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B884D1-1A80-4C11-9D7A-15E80F14DEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6A2865-D2B7-4B96-870B-2C4928A55F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-10800" windowWidth="21840" windowHeight="37920" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-10800" windowWidth="21840" windowHeight="37920" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Алмаз  таб 1" sheetId="3" r:id="rId3"/>
     <sheet name="Алмаз таб 2" sheetId="4" r:id="rId4"/>
     <sheet name="Алмаз таб 3" sheetId="5" r:id="rId5"/>
+    <sheet name="Алмаз таб 4" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t>Время загрузки (сек)</t>
   </si>
@@ -289,22 +290,85 @@
   <si>
     <t>Середина интервала</t>
   </si>
+  <si>
+    <t>4,219;4,87649</t>
+  </si>
+  <si>
+    <t>4,87649;5,53397</t>
+  </si>
+  <si>
+    <t>5,53397;6,19146</t>
+  </si>
+  <si>
+    <t>6,19146;6,84894</t>
+  </si>
+  <si>
+    <t>6,84894;7,50643</t>
+  </si>
+  <si>
+    <t>7,50643;8,16392</t>
+  </si>
+  <si>
+    <t>x(i+1)</t>
+  </si>
+  <si>
+    <t>x ср</t>
+  </si>
+  <si>
+    <t>nj</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>fj</t>
+  </si>
+  <si>
+    <t>pj (= fj * l)</t>
+  </si>
+  <si>
+    <t>n*pj</t>
+  </si>
+  <si>
+    <t>(nj-n*pj)^2/n*pj</t>
+  </si>
+  <si>
+    <t>∑(nj-n*pj)^2/n*pj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ta = </t>
+  </si>
+  <si>
+    <t>t &gt; ta , гипотеза отклоняется</t>
+  </si>
+  <si>
+    <t>t =</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="0\.00_);[Red]\(0\.00\)"/>
-    <numFmt numFmtId="169" formatCode="0_ "/>
-    <numFmt numFmtId="170" formatCode="0.0000_ "/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0\.00_);[Red]\(0\.00\)"/>
+    <numFmt numFmtId="165" formatCode="0_ "/>
+    <numFmt numFmtId="166" formatCode="0.0000_ "/>
+    <numFmt numFmtId="170" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -344,6 +408,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -452,14 +523,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -483,10 +554,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -495,13 +566,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
@@ -516,28 +587,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -770,6 +853,2020 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Гистограмма</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> относительных частот</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Алмаз таб 3'!$B$52:$G$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.5477430997618438</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2052292992855325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8627154988092194</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5202016983329081</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.177687897856595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8351740973802828</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Алмаз таб 3'!$B$51:$G$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.46798291418924653</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19499288091218603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11699572854731163</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46798291418924653</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15599430472974882</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7997152364874409E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-81F3-4E93-8131-CB6219FD15E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="-27"/>
+        <c:axId val="504990208"/>
+        <c:axId val="504990624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="504990208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>x</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504990624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="504990624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>f*(x)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504990208"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:softEdge rad="0"/>
+        </a:effectLst>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Гистограмма</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t>построенная по частотам </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>nj</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="6350">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Алмаз таб 3'!$B$52:$G$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.5477430997618438</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2052292992855325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8627154988092194</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5202016983329081</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.177687897856595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8351740973802828</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Алмаз таб 3'!$B$49:$G$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-362C-4EB6-8723-EE9631D2BF9E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="-27"/>
+        <c:axId val="504990208"/>
+        <c:axId val="504990624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="504990208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>x</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504990624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="504990624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nj</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504990208"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:softEdge rad="0"/>
+        </a:effectLst>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -795,7 +2892,7 @@
                   <a14:compatExt spid="_x0000_s4097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D076BE3-66F0-455D-B74D-A4BF9B685FDB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -849,7 +2946,7 @@
                   <a14:compatExt spid="_x0000_s4099"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24816D89-DE7E-4015-8D24-A6687BB5445F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -903,7 +3000,7 @@
                   <a14:compatExt spid="_x0000_s4100"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C195EA-0C62-4C2E-B755-8A6DBE3E0914}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -957,7 +3054,7 @@
                   <a14:compatExt spid="_x0000_s4101"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{324F0106-BCAA-4AC8-AFEF-CD30C43ECCB5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1011,7 +3108,7 @@
                   <a14:compatExt spid="_x0000_s4102"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68202BB2-506D-471F-8ACA-397A010F1A34}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1042,6 +3139,85 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>420219</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>118782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>778807</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>4482</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AF4F647-3D83-4E96-B7D8-FEB86371AA67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>410767</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>769355</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>111919</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5791D2AD-1253-4F5D-8D32-5AD5A2FCD009}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1451,7 +3627,7 @@
         <v>4.6769999999999996</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="24" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="15">
@@ -2092,7 +4268,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2463,11 +4639,11 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
@@ -2486,11 +4662,11 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
@@ -2523,7 +4699,7 @@
   <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2546,7 +4722,7 @@
       <c r="B2">
         <v>4.2190000000000003</v>
       </c>
-      <c r="D2" s="25"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
@@ -2862,7 +5038,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="23" t="s">
         <v>34</v>
       </c>
       <c r="B43" cm="1">
@@ -2871,7 +5047,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B44">
@@ -2880,7 +5056,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B46">
@@ -2888,18 +5064,18 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="25">
+      <c r="B47" s="23">
         <v>2.0244</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="23" t="s">
         <v>38</v>
       </c>
       <c r="B49">
@@ -2908,7 +5084,7 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="23" t="s">
         <v>39</v>
       </c>
       <c r="B50">
@@ -2917,7 +5093,7 @@
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B52">
@@ -2926,7 +5102,7 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="23" t="s">
         <v>41</v>
       </c>
       <c r="B53">
@@ -2935,7 +5111,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" ht="29.25" customHeight="1">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="25" t="s">
         <v>42</v>
       </c>
       <c r="B55">
@@ -2943,7 +5119,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" ht="32.25" customHeight="1">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="25" t="s">
         <v>42</v>
       </c>
       <c r="B56">
@@ -2951,7 +5127,7 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="25" t="s">
         <v>42</v>
       </c>
       <c r="B58">
@@ -2960,7 +5136,7 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="25" t="s">
         <v>42</v>
       </c>
       <c r="B59">
@@ -2976,8 +5152,108 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="4097" r:id="rId4">
+        <oleObject progId="Equation.DSMT4" shapeId="4099" r:id="rId4">
           <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>54</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>54</xdr:row>
+                <xdr:rowOff>266700</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="4099" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="4100" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>55</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>55</xdr:row>
+                <xdr:rowOff>266700</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="4100" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="4101" r:id="rId8">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>57</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>58</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="4101" r:id="rId8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.3" shapeId="4102" r:id="rId10">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>58</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>59</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.3" shapeId="4102" r:id="rId10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="4097" r:id="rId12">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId13">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -2996,107 +5272,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="4097" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="4099" r:id="rId6">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>54</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>54</xdr:row>
-                <xdr:rowOff>266700</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="4099" r:id="rId6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="4100" r:id="rId8">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>55</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>55</xdr:row>
-                <xdr:rowOff>266700</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="4100" r:id="rId8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="4101" r:id="rId10">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>57</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
-                <xdr:row>58</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="4101" r:id="rId10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.3" shapeId="4102" r:id="rId12">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId13">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>58</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
-                <xdr:row>59</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.3" shapeId="4102" r:id="rId12"/>
+        <oleObject progId="Equation.DSMT4" shapeId="4097" r:id="rId12"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -3105,19 +5281,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC82CD8-D1BD-4B1F-BA06-CC4453063BF9}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="11" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -3125,15 +5308,43 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>4.2190000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="E2" s="29">
+        <f>B2+B44</f>
+        <v>4.8764861995236881</v>
+      </c>
+      <c r="F2" s="29">
+        <f>E2+$B$44</f>
+        <v>5.5339723990473759</v>
+      </c>
+      <c r="G2" s="29">
+        <f t="shared" ref="G2:K2" si="0">F2+$B$44</f>
+        <v>6.1914585985710637</v>
+      </c>
+      <c r="H2" s="29">
+        <f t="shared" si="0"/>
+        <v>6.8489447980947515</v>
+      </c>
+      <c r="I2" s="29">
+        <f t="shared" si="0"/>
+        <v>7.5064309976184393</v>
+      </c>
+      <c r="J2" s="29">
+        <f t="shared" si="0"/>
+        <v>8.1639171971421263</v>
+      </c>
+      <c r="K2" s="29">
+        <f>J2+$B$44</f>
+        <v>8.8214033966658132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3141,7 +5352,7 @@
         <v>4.2569999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3149,7 +5360,7 @@
         <v>4.2789999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3157,7 +5368,7 @@
         <v>4.3380000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3165,7 +5376,7 @@
         <v>4.3449999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3173,7 +5384,7 @@
         <v>4.3949999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3181,7 +5392,7 @@
         <v>4.4710000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3189,7 +5400,7 @@
         <v>4.4779999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3197,7 +5408,7 @@
         <v>4.6769999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3205,7 +5416,7 @@
         <v>4.702</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3213,7 +5424,7 @@
         <v>4.7869999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3221,7 +5432,7 @@
         <v>4.8280000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3229,7 +5440,7 @@
         <v>4.9180000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3237,7 +5448,7 @@
         <v>5.0119999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3373,7 +5584,7 @@
         <v>6.782</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3381,7 +5592,7 @@
         <v>6.7850000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3389,7 +5600,7 @@
         <v>6.9589999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3397,7 +5608,7 @@
         <v>6.968</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3405,7 +5616,7 @@
         <v>7.1509999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3413,7 +5624,7 @@
         <v>7.4429999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3421,7 +5632,7 @@
         <v>8.0060000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3429,7 +5640,7 @@
         <v>8.0459999999999994</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3437,7 +5648,7 @@
         <v>8.3249999999999993</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -3446,60 +5657,570 @@
         <v>4.105999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="28">
+      <c r="B43" s="26">
         <f>SQRT(39)</f>
         <v>6.2449979983983983</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>45</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="29">
         <f>B42/B43</f>
         <v>0.65748619952368759</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H47" s="29"/>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48" s="29">
+        <v>0.65748619952368759</v>
+      </c>
+      <c r="C48" s="29">
+        <v>0.65748619952368759</v>
+      </c>
+      <c r="D48" s="29">
+        <v>0.65748619952368759</v>
+      </c>
+      <c r="E48" s="29">
+        <v>0.65748619952368759</v>
+      </c>
+      <c r="F48" s="29">
+        <v>0.65748619952368759</v>
+      </c>
+      <c r="G48" s="29">
+        <v>0.65748619952368759</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>12</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50" s="29">
+        <f>B49/39</f>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="C50" s="29">
+        <f t="shared" ref="C50:G50" si="1">C49/39</f>
+        <v>0.12820512820512819</v>
+      </c>
+      <c r="D50" s="29">
+        <f t="shared" si="1"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="E50" s="29">
+        <f t="shared" si="1"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="F50" s="29">
+        <f t="shared" si="1"/>
+        <v>0.10256410256410256</v>
+      </c>
+      <c r="G50" s="29">
+        <f t="shared" si="1"/>
+        <v>5.128205128205128E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51" s="29">
+        <f>B50/B48</f>
+        <v>0.46798291418924653</v>
+      </c>
+      <c r="C51" s="29">
+        <f t="shared" ref="C51:G51" si="2">C50/C48</f>
+        <v>0.19499288091218603</v>
+      </c>
+      <c r="D51" s="29">
+        <f t="shared" si="2"/>
+        <v>0.11699572854731163</v>
+      </c>
+      <c r="E51" s="29">
+        <f t="shared" si="2"/>
+        <v>0.46798291418924653</v>
+      </c>
+      <c r="F51" s="29">
+        <f t="shared" si="2"/>
+        <v>0.15599430472974882</v>
+      </c>
+      <c r="G51" s="29">
+        <f t="shared" si="2"/>
+        <v>7.7997152364874409E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>52</v>
       </c>
+      <c r="B52" s="29">
+        <f>AVERAGE(B2,E2)</f>
+        <v>4.5477430997618438</v>
+      </c>
+      <c r="C52" s="29">
+        <f>AVERAGE(E2,F2)</f>
+        <v>5.2052292992855325</v>
+      </c>
+      <c r="D52" s="29">
+        <f t="shared" ref="D52:G52" si="3">AVERAGE(F2,G2)</f>
+        <v>5.8627154988092194</v>
+      </c>
+      <c r="E52" s="29">
+        <f t="shared" si="3"/>
+        <v>6.5202016983329081</v>
+      </c>
+      <c r="F52" s="29">
+        <f t="shared" si="3"/>
+        <v>7.177687897856595</v>
+      </c>
+      <c r="G52" s="29">
+        <f t="shared" si="3"/>
+        <v>7.8351740973802828</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB690A9-68C8-49F4-A1A2-F85BF84A984C}">
+  <dimension ref="A1:H59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4.2190000000000003</v>
+      </c>
+      <c r="C2">
+        <v>4.8764900000000004</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(B2:C2)</f>
+        <v>4.5477450000000008</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>5.8136153846153844</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4.8764900000000004</v>
+      </c>
+      <c r="C3">
+        <v>5.5339700000000001</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D7" si="0">AVERAGE(B3:C3)</f>
+        <v>5.2052300000000002</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3">
+        <v>1.1872288746529527</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>5.5339700000000001</v>
+      </c>
+      <c r="C4">
+        <v>6.1914600000000002</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>5.8627149999999997</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>6.1914600000000002</v>
+      </c>
+      <c r="C5">
+        <v>6.8489399999999998</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>6.5202</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6.8489399999999998</v>
+      </c>
+      <c r="C6">
+        <v>7.5064299999999999</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>7.1776850000000003</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7.5064299999999999</v>
+      </c>
+      <c r="C7">
+        <v>8.1639199999999992</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>7.8351749999999996</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="E8">
+        <f>SUM(E2:E7)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="29">
+        <v>0.65748619952368759</v>
+      </c>
+      <c r="C14">
+        <f>_xlfn.NORM.DIST(D2,$H$2,$H$3,0)</f>
+        <v>0.19033038658213774</v>
+      </c>
+      <c r="D14" s="29">
+        <f>C14*B14</f>
+        <v>0.12513960252776402</v>
+      </c>
+      <c r="E14" s="29">
+        <f>39*D14</f>
+        <v>4.8804444985827971</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29">
+        <f>POWER(E2-E14,2)/E14</f>
+        <v>10.385953687718192</v>
+      </c>
+      <c r="H14" s="29">
+        <f>SUM(G14:G19)</f>
+        <v>18.119817114703224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="29">
+        <v>0.65748619952368759</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:C19" si="1">_xlfn.NORM.DIST(D3,$H$2,$H$3,0)</f>
+        <v>0.29468195868130859</v>
+      </c>
+      <c r="D15" s="29">
+        <f t="shared" ref="D15:D19" si="2">C15*B15</f>
+        <v>0.19374932108156992</v>
+      </c>
+      <c r="E15" s="29">
+        <f t="shared" ref="E15:E19" si="3">39*D15</f>
+        <v>7.5562235221812273</v>
+      </c>
+      <c r="G15" s="29">
+        <f t="shared" ref="G15:G19" si="4">POWER(E3-E15,2)/E15</f>
+        <v>0.86475455314037253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="29">
+        <v>0.65748619952368759</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0.33574087312744977</v>
+      </c>
+      <c r="D16" s="29">
+        <f t="shared" si="2"/>
+        <v>0.22074499069733153</v>
+      </c>
+      <c r="E16" s="29">
+        <f t="shared" si="3"/>
+        <v>8.6090546371959302</v>
+      </c>
+      <c r="G16" s="29">
+        <f t="shared" si="4"/>
+        <v>3.6544655887207314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" s="29">
+        <v>0.65748619952368759</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0.28148816033724233</v>
+      </c>
+      <c r="D17" s="29">
+        <f t="shared" si="2"/>
+        <v>0.18507458075104788</v>
+      </c>
+      <c r="E17" s="29">
+        <f t="shared" si="3"/>
+        <v>7.2179086492908677</v>
+      </c>
+      <c r="G17" s="29">
+        <f t="shared" si="4"/>
+        <v>3.1682858287176892</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" s="29">
+        <v>0.65748619952368759</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0.17366859846411742</v>
+      </c>
+      <c r="D18" s="29">
+        <f t="shared" si="2"/>
+        <v>0.11418470678077788</v>
+      </c>
+      <c r="E18" s="29">
+        <f t="shared" si="3"/>
+        <v>4.4532035644503374</v>
+      </c>
+      <c r="G18" s="29">
+        <f t="shared" si="4"/>
+        <v>4.6122632360697621E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" s="29">
+        <v>0.65748619952368759</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>7.8846896076413292E-2</v>
+      </c>
+      <c r="D19" s="29">
+        <f t="shared" si="2"/>
+        <v>5.1840746045520129E-2</v>
+      </c>
+      <c r="E19" s="29">
+        <f t="shared" si="3"/>
+        <v>2.0217890957752851</v>
+      </c>
+      <c r="G19" s="29">
+        <f t="shared" si="4"/>
+        <v>2.3482404554293589E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="F22" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22">
+        <v>18.119817114703224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="F24" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24">
+        <v>7.8147250000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="G27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+    </row>
+    <row r="59" spans="1:7" ht="18.75">
+      <c r="A59" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E56:G56"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>